--- a/data/trans_orig/P36B09-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4101</v>
+        <v>3686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17017</v>
+        <v>17043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01507160109555516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007029478824933936</v>
+        <v>0.006317778750634746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02916997422517586</v>
+        <v>0.02921450435175646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -764,19 +764,19 @@
         <v>9687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4500</v>
+        <v>4970</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18077</v>
+        <v>18055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01050240461681126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004878820564415323</v>
+        <v>0.005388008752977596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01959934574535837</v>
+        <v>0.01957580549915547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -785,19 +785,19 @@
         <v>18479</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11481</v>
+        <v>10957</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29575</v>
+        <v>28953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01227269897831005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007625035513543237</v>
+        <v>0.007276765077533352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01964202873329077</v>
+        <v>0.01922889353038692</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>34727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24832</v>
+        <v>24735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47334</v>
+        <v>46258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05952866297682226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04256638457366139</v>
+        <v>0.04240062485372519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08113919892829709</v>
+        <v>0.07929487445579801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -835,19 +835,19 @@
         <v>49013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36690</v>
+        <v>36079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64866</v>
+        <v>63623</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05314058309534304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03977988199817227</v>
+        <v>0.03911673473224281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07032862359166117</v>
+        <v>0.06898087871109342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -856,19 +856,19 @@
         <v>83741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66110</v>
+        <v>66371</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101838</v>
+        <v>102650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05561558758411813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04390608859870716</v>
+        <v>0.04407980653946705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06763456494645904</v>
+        <v>0.06817417169764942</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>267334</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>241711</v>
+        <v>244061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>291596</v>
+        <v>291933</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4582559267757259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4143340284453983</v>
+        <v>0.4183617616344587</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4998450676538204</v>
+        <v>0.5004237652375549</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>415</v>
@@ -906,19 +906,19 @@
         <v>431451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>401623</v>
+        <v>401894</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>462116</v>
+        <v>460939</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4677827121015736</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4354422637064838</v>
+        <v>0.4357361627414603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5010295044710855</v>
+        <v>0.4997536534045622</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>680</v>
@@ -927,19 +927,19 @@
         <v>698785</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>655501</v>
+        <v>660656</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>736092</v>
+        <v>739067</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4640916442247564</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4353451567797231</v>
+        <v>0.4387687143411801</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4888684517703354</v>
+        <v>0.4908446083696354</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>241368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218365</v>
+        <v>218575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>265698</v>
+        <v>267204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4137459038780672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3743155566054274</v>
+        <v>0.3746757587344404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4554528174487353</v>
+        <v>0.4580328858671019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>390</v>
@@ -977,19 +977,19 @@
         <v>405232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>376773</v>
+        <v>375954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>435080</v>
+        <v>437663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4393549984334254</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4085003878366132</v>
+        <v>0.4076123054141564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4717163749068144</v>
+        <v>0.4745171662976561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>623</v>
@@ -998,19 +998,19 @@
         <v>646599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>606652</v>
+        <v>608400</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>685245</v>
+        <v>681636</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.429432983500309</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4029019659499808</v>
+        <v>0.404063135661414</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4550990910275141</v>
+        <v>0.4527022161519187</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>31151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21563</v>
+        <v>21582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42982</v>
+        <v>42517</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05339790527382954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0369635370782876</v>
+        <v>0.03699473842550928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07367807641288351</v>
+        <v>0.07288085686733711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1048,19 +1048,19 @@
         <v>26950</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17589</v>
+        <v>17640</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38992</v>
+        <v>39744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02921930175284672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01907024085704995</v>
+        <v>0.01912586126164731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0422750171051658</v>
+        <v>0.04309024295960712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -1069,19 +1069,19 @@
         <v>58101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44435</v>
+        <v>45641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74498</v>
+        <v>75081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03858708571250639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0295109822039946</v>
+        <v>0.03031187729354235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04947715492696012</v>
+        <v>0.04986435171998115</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>13631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7053</v>
+        <v>7659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24186</v>
+        <v>24534</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0126556902257243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006548434886897754</v>
+        <v>0.00711133376259866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0224564386381544</v>
+        <v>0.02277946086885481</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1194,19 +1194,19 @@
         <v>17510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10248</v>
+        <v>10196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27570</v>
+        <v>26725</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01655755144774308</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009690684320308278</v>
+        <v>0.009641340661744499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02606994657890754</v>
+        <v>0.02527138531021668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1215,19 +1215,19 @@
         <v>31141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20267</v>
+        <v>20866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43591</v>
+        <v>45280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01458879695077734</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009494389704725072</v>
+        <v>0.009775096102308388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0204214802695993</v>
+        <v>0.02121248652822954</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>39418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29411</v>
+        <v>27921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52717</v>
+        <v>54117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03659833983927226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02730751701136069</v>
+        <v>0.02592409233261754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04894594790918805</v>
+        <v>0.05024644436637462</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1265,19 +1265,19 @@
         <v>63324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48947</v>
+        <v>48069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79440</v>
+        <v>79043</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05987912735658898</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04628366807855667</v>
+        <v>0.04545338431581941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0751176106593463</v>
+        <v>0.07474215873129379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -1286,19 +1286,19 @@
         <v>102742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83259</v>
+        <v>82507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124814</v>
+        <v>123195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04813238586333125</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03900503489323584</v>
+        <v>0.03865242736552944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05847254569463643</v>
+        <v>0.05771380419661796</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>400041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>368079</v>
+        <v>366959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>432014</v>
+        <v>430169</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3714260994862518</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3417503958602318</v>
+        <v>0.3407109231299376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4011123086899337</v>
+        <v>0.39939913313048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>463</v>
@@ -1336,19 +1336,19 @@
         <v>475559</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>443585</v>
+        <v>442648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>505122</v>
+        <v>506525</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4496849141276752</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4194503534897791</v>
+        <v>0.4185643588492708</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4776399790015884</v>
+        <v>0.4789666073215291</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>856</v>
@@ -1357,19 +1357,19 @@
         <v>875599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>830848</v>
+        <v>831011</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>918879</v>
+        <v>927792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4101980168533544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3892332669966871</v>
+        <v>0.3893094505486314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4304734599436639</v>
+        <v>0.4346491187903787</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>525917</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>492914</v>
+        <v>491508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>558335</v>
+        <v>558295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4882988110747674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4576557558272761</v>
+        <v>0.4563505192910027</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5183975579981603</v>
+        <v>0.5183601678778821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>444</v>
@@ -1407,19 +1407,19 @@
         <v>454804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>423136</v>
+        <v>423457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>484276</v>
+        <v>485999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4300588157672464</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4001146890031155</v>
+        <v>0.4004173967110105</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4579280614165471</v>
+        <v>0.4595572960967647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>959</v>
@@ -1428,19 +1428,19 @@
         <v>980720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>936924</v>
+        <v>934189</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1028048</v>
+        <v>1028089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4594448564644145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4389270398573191</v>
+        <v>0.4376461398228431</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4816168014912993</v>
+        <v>0.481635725634614</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>98033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82021</v>
+        <v>80451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119435</v>
+        <v>117208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0910210593739843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07615452610920419</v>
+        <v>0.07469674391387525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1108914288258902</v>
+        <v>0.1088245516509457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1478,19 +1478,19 @@
         <v>46341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33308</v>
+        <v>34240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60821</v>
+        <v>63579</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04381959130074632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03149564723445535</v>
+        <v>0.03237686316819031</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05751164538995381</v>
+        <v>0.06011979725251653</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -1499,19 +1499,19 @@
         <v>144374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124449</v>
+        <v>122606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169515</v>
+        <v>169765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06763594386812247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05830151745180376</v>
+        <v>0.05743829766689602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07941371937883748</v>
+        <v>0.0795311662668871</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>4203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10858</v>
+        <v>10822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003750601261303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0008660982312842464</v>
+        <v>0.0008595615636291257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009689699433681932</v>
+        <v>0.009657544649514236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>11502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6452</v>
+        <v>5825</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21206</v>
+        <v>20281</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01158464043313964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006498155592507371</v>
+        <v>0.005866607536851289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02135817611126527</v>
+        <v>0.02042600455219534</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1645,19 +1645,19 @@
         <v>15705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8941</v>
+        <v>9030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25215</v>
+        <v>24914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007430894504927131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00423055310972965</v>
+        <v>0.004272426042059925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01193049981318648</v>
+        <v>0.0117880616429215</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>40923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29923</v>
+        <v>29592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54797</v>
+        <v>53937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0365189273427329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02670274363919143</v>
+        <v>0.02640684100253137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04889961564722763</v>
+        <v>0.04813149533881014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1695,19 +1695,19 @@
         <v>36679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25628</v>
+        <v>26967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50277</v>
+        <v>51180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03694252916660495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02581217196925403</v>
+        <v>0.02716002022833208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05063801270234786</v>
+        <v>0.05154661226739728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -1716,19 +1716,19 @@
         <v>77603</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62075</v>
+        <v>60617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96255</v>
+        <v>95135</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03671792799822971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02937093593407687</v>
+        <v>0.02868081726705578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04554326020851003</v>
+        <v>0.04501311035384836</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>445978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>411590</v>
+        <v>415016</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>477920</v>
+        <v>478122</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3979781672102397</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3672909906907213</v>
+        <v>0.3703482541632253</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4264822820076558</v>
+        <v>0.4266626017663738</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>461</v>
@@ -1766,19 +1766,19 @@
         <v>469546</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>436535</v>
+        <v>440054</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>499948</v>
+        <v>502122</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4729127152061554</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4396654004323892</v>
+        <v>0.4432092326607415</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5035328847003774</v>
+        <v>0.5057232125325773</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>900</v>
@@ -1787,19 +1787,19 @@
         <v>915523</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>873504</v>
+        <v>869694</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>965374</v>
+        <v>962761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4331810944172965</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4132992926369835</v>
+        <v>0.4114969663732782</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4567679330841685</v>
+        <v>0.4555316024183577</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>529283</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>497188</v>
+        <v>494666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>565495</v>
+        <v>560447</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4723170616118494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4436763086636895</v>
+        <v>0.441425889530203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5046315580980894</v>
+        <v>0.5001268389047177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>441</v>
@@ -1837,19 +1837,19 @@
         <v>442453</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>412882</v>
+        <v>409732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>473717</v>
+        <v>470125</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4456254149052764</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4158430737764453</v>
+        <v>0.4126703531635784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4771137035607915</v>
+        <v>0.4734963700391122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>962</v>
@@ -1858,19 +1858,19 @@
         <v>971735</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>921495</v>
+        <v>923709</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1014628</v>
+        <v>1014640</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4597777973982429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4360063069262316</v>
+        <v>0.437053880995121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4800727372263608</v>
+        <v>0.4800780418472932</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>100222</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81856</v>
+        <v>81434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121820</v>
+        <v>119705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08943524257387496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07304581507746531</v>
+        <v>0.07266899412770915</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1087087381233064</v>
+        <v>0.1068209375377929</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1908,19 +1908,19 @@
         <v>32700</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23447</v>
+        <v>22492</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46574</v>
+        <v>44931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03293470028882366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02361560525336404</v>
+        <v>0.02265330420678078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04690827306731928</v>
+        <v>0.04525349739248355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -1929,19 +1929,19 @@
         <v>132922</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>111095</v>
+        <v>110906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158574</v>
+        <v>157496</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0628922856813038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05256487527167979</v>
+        <v>0.05247510282955388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07502932432329731</v>
+        <v>0.07451961433515961</v>
       </c>
     </row>
     <row r="21">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7691</v>
+        <v>9024</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003420794647462393</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01723500347032928</v>
+        <v>0.02022178834243455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2054,19 +2054,19 @@
         <v>5078</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1153</v>
+        <v>1978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11274</v>
+        <v>11160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01492847713301468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003388633785883672</v>
+        <v>0.005813902860763885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03314385818871925</v>
+        <v>0.03280767669454199</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2075,19 +2075,19 @@
         <v>6605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2883</v>
+        <v>2497</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14826</v>
+        <v>13542</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008398356787739139</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003665634575699094</v>
+        <v>0.003175318789843144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01885273011143387</v>
+        <v>0.01722043414249097</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>20969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12754</v>
+        <v>13366</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31388</v>
+        <v>31061</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04698803699319645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02858040510272822</v>
+        <v>0.02995211049129887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07033516156933174</v>
+        <v>0.06960354553450138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2125,19 +2125,19 @@
         <v>17159</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10202</v>
+        <v>10626</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25644</v>
+        <v>26317</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0504432868682465</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02999118395771296</v>
+        <v>0.03123877179344374</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07538914897101696</v>
+        <v>0.07736702818146569</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2146,19 +2146,19 @@
         <v>38128</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>27551</v>
+        <v>27311</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51089</v>
+        <v>51685</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04848257952900571</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03503379409800057</v>
+        <v>0.03472788085428994</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06496450286842693</v>
+        <v>0.06572166053516371</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>173063</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151867</v>
+        <v>153967</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>195045</v>
+        <v>194037</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.387808379970247</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3403117306631331</v>
+        <v>0.3450180678941247</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4370662335222041</v>
+        <v>0.4348090628765951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -2196,19 +2196,19 @@
         <v>134185</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>117064</v>
+        <v>117122</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>152978</v>
+        <v>151641</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3944765023453151</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3441444120373957</v>
+        <v>0.3443142409070182</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4497248467381855</v>
+        <v>0.4457944856015266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>298</v>
@@ -2217,19 +2217,19 @@
         <v>307248</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>279351</v>
+        <v>281104</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>332420</v>
+        <v>335448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3906926265179373</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3552199731539648</v>
+        <v>0.3574486133509229</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4227013490096829</v>
+        <v>0.4265517066435882</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>210256</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189487</v>
+        <v>189322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>232994</v>
+        <v>232589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.47115342550076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4246122116925395</v>
+        <v>0.4242413478485675</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5221041495580124</v>
+        <v>0.5211979452867679</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>171</v>
@@ -2267,19 +2267,19 @@
         <v>167769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149005</v>
+        <v>150883</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186633</v>
+        <v>186446</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4932088738110143</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4380440720457224</v>
+        <v>0.4435660862272396</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5486635233169046</v>
+        <v>0.5481128860552251</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>378</v>
@@ -2288,19 +2288,19 @@
         <v>378026</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>351081</v>
+        <v>349120</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>406142</v>
+        <v>404483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4806933449966083</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4464299218593749</v>
+        <v>0.443937098502297</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5164448357986747</v>
+        <v>0.5143358007680001</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>40444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28386</v>
+        <v>29733</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53341</v>
+        <v>54344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09062936288833419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06360768517218941</v>
+        <v>0.06662638516816805</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1195302668858907</v>
+        <v>0.1217769628330695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2338,19 +2338,19 @@
         <v>15968</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9240</v>
+        <v>9567</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24997</v>
+        <v>25707</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04694285984240947</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02716444585010474</v>
+        <v>0.02812513379739754</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07348639780206519</v>
+        <v>0.07557333635281449</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -2359,19 +2359,19 @@
         <v>56412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44310</v>
+        <v>43316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73546</v>
+        <v>72280</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07173309216870949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05634370444426302</v>
+        <v>0.05508018712066307</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09352013347522628</v>
+        <v>0.0919098232492664</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>28153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18741</v>
+        <v>18022</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42349</v>
+        <v>41093</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00872330621310342</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005807133628615129</v>
+        <v>0.005584325249610072</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01312232560986706</v>
+        <v>0.01273314827040246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -2484,19 +2484,19 @@
         <v>43777</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32701</v>
+        <v>32422</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59461</v>
+        <v>60144</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01321411314804395</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009870650795948793</v>
+        <v>0.009786447746013921</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01794821211853116</v>
+        <v>0.0181543104928963</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -2505,19 +2505,19 @@
         <v>71930</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56565</v>
+        <v>57357</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>91521</v>
+        <v>90769</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01099810868928784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008648776527631154</v>
+        <v>0.008769870493617936</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01399364439856904</v>
+        <v>0.01387870803645508</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>136037</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>114667</v>
+        <v>113696</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>159367</v>
+        <v>158456</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04215237106500434</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03553053803916891</v>
+        <v>0.03522980081584142</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04938122316568754</v>
+        <v>0.04909879439844508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>159</v>
@@ -2555,19 +2555,19 @@
         <v>166176</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>143585</v>
+        <v>143002</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>192210</v>
+        <v>192579</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05016013232907827</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04334098243364867</v>
+        <v>0.04316510878356895</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05801853741999272</v>
+        <v>0.05812977604322152</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>295</v>
@@ -2576,19 +2576,19 @@
         <v>302213</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>268648</v>
+        <v>268992</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>338385</v>
+        <v>335182</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04620867440115528</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04107642987211578</v>
+        <v>0.04112901555104609</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0517393878576348</v>
+        <v>0.05124965654076845</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1286415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1227295</v>
+        <v>1228663</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1345313</v>
+        <v>1345396</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3986066763722804</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3802879843852045</v>
+        <v>0.3807118888116239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4168567399742286</v>
+        <v>0.4168825857328322</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1469</v>
@@ -2626,19 +2626,19 @@
         <v>1510741</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1457077</v>
+        <v>1452180</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1567478</v>
+        <v>1567692</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4560161958482345</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4398178171029769</v>
+        <v>0.4383397180191132</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4731423274173355</v>
+        <v>0.4732069894386978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2734</v>
@@ -2647,19 +2647,19 @@
         <v>2797156</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2725579</v>
+        <v>2715897</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2876132</v>
+        <v>2873313</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4276872667767279</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4167431879097639</v>
+        <v>0.4152627084288136</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.439762798905165</v>
+        <v>0.4393317743318353</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1506824</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1447689</v>
+        <v>1448552</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1565152</v>
+        <v>1567152</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4669022592510994</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4485787000650422</v>
+        <v>0.4488461196761848</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4849756918768694</v>
+        <v>0.4855954231123943</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1446</v>
@@ -2697,19 +2697,19 @@
         <v>1470257</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1415955</v>
+        <v>1408484</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1528015</v>
+        <v>1524969</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4437962884600987</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.427405066319177</v>
+        <v>0.4251499917624218</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4612303677452885</v>
+        <v>0.4603109364117077</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2922</v>
@@ -2718,19 +2718,19 @@
         <v>2977081</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2894501</v>
+        <v>2892315</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3055547</v>
+        <v>3055825</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4551980109207914</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.442571394069136</v>
+        <v>0.4422371558842355</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4671954847248049</v>
+        <v>0.4672380626916635</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>269850</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>238699</v>
+        <v>238377</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>302218</v>
+        <v>303581</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08361538709851242</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07396306925449657</v>
+        <v>0.07386310316246839</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09364487726123338</v>
+        <v>0.09406721273251098</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>115</v>
@@ -2768,19 +2768,19 @@
         <v>121959</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>100154</v>
+        <v>101519</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>142560</v>
+        <v>145450</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03681327021454461</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03023140974208165</v>
+        <v>0.0306435065565896</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04303170926012164</v>
+        <v>0.04390402613363105</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>377</v>
@@ -2789,19 +2789,19 @@
         <v>391809</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>354913</v>
+        <v>358580</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>429685</v>
+        <v>433673</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05990793921203756</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0542664357722971</v>
+        <v>0.05482711472473852</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06569912832454375</v>
+        <v>0.06630899945639739</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>16238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8643</v>
+        <v>9159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26731</v>
+        <v>26722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01564692889548386</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008328492359802934</v>
+        <v>0.008826134787862629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02575880380997194</v>
+        <v>0.02574985805390819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3154,19 +3154,19 @@
         <v>22269</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13725</v>
+        <v>13813</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35435</v>
+        <v>34906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01995768785742005</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01230034595747535</v>
+        <v>0.0123799130620507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03175725701022727</v>
+        <v>0.03128368276439443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -3175,19 +3175,19 @@
         <v>38506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25896</v>
+        <v>26280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54215</v>
+        <v>53037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01788042425992875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01202473837450102</v>
+        <v>0.01220314731242827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02517495585638613</v>
+        <v>0.02462784183093744</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>64913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50414</v>
+        <v>50503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84870</v>
+        <v>83141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06255150084098261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04858059365582579</v>
+        <v>0.04866637683247182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08178271002156084</v>
+        <v>0.08011635537724829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -3225,19 +3225,19 @@
         <v>101985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84003</v>
+        <v>84725</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122312</v>
+        <v>124443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09140112584527461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07528557945292272</v>
+        <v>0.07593231678621598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.109618411011769</v>
+        <v>0.1115281682324106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -3246,19 +3246,19 @@
         <v>166898</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>143320</v>
+        <v>142891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192374</v>
+        <v>194875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07749910154935492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06655047075386968</v>
+        <v>0.06635141193590724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08932905671621159</v>
+        <v>0.09049022245529077</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>424137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>390826</v>
+        <v>391037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>455784</v>
+        <v>456956</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4087091384374542</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3766100506307111</v>
+        <v>0.3768126648532641</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4392050464331066</v>
+        <v>0.4403344874858858</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>456</v>
@@ -3296,19 +3296,19 @@
         <v>491239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>457265</v>
+        <v>453844</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>526821</v>
+        <v>521291</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4402578092359769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4098101083366755</v>
+        <v>0.406743659009066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4721470538013953</v>
+        <v>0.4671907507119779</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>852</v>
@@ -3317,19 +3317,19 @@
         <v>915376</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>866710</v>
+        <v>872430</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>963549</v>
+        <v>965106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4250551718401777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4024572324005005</v>
+        <v>0.4051130754190608</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4474244589098893</v>
+        <v>0.4481472274404999</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>455342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>425253</v>
+        <v>425716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>491551</v>
+        <v>491132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4387794280306993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4097844880016089</v>
+        <v>0.4102304985397509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4736707432175019</v>
+        <v>0.473267340835387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>401</v>
@@ -3367,19 +3367,19 @@
         <v>442235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>408148</v>
+        <v>409181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>477478</v>
+        <v>476211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3963399760174418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3657904590935698</v>
+        <v>0.3667158157104524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4279255307445809</v>
+        <v>0.4267900038810931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>831</v>
@@ -3388,19 +3388,19 @@
         <v>897578</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>853875</v>
+        <v>848827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>948376</v>
+        <v>941394</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4167906506070092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3964974401122227</v>
+        <v>0.3941532325245498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4403789419164873</v>
+        <v>0.4371367780809414</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>77118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62554</v>
+        <v>60934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95894</v>
+        <v>94414</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07431300379538007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06027879849297517</v>
+        <v>0.05871784747301278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09240589180260103</v>
+        <v>0.0909792314750265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -3438,19 +3438,19 @@
         <v>58070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43676</v>
+        <v>45045</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75760</v>
+        <v>75677</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05204340104388668</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0391437013687382</v>
+        <v>0.04037037196428375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06789800812637306</v>
+        <v>0.06782307366851571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -3459,19 +3459,19 @@
         <v>135188</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113457</v>
+        <v>113712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159611</v>
+        <v>157943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06277465174352949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05268391984446236</v>
+        <v>0.05280241437579587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07411541160210097</v>
+        <v>0.07334081629737713</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>5475</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2487</v>
+        <v>1863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11647</v>
+        <v>11511</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005637782707241554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002561141732176283</v>
+        <v>0.001918647389444013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01199280261858941</v>
+        <v>0.0118536006338465</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3584,19 +3584,19 @@
         <v>13924</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7482</v>
+        <v>8097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23008</v>
+        <v>25116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01274841157846321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006850161129908851</v>
+        <v>0.007413370953267569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02106533678430271</v>
+        <v>0.02299570087012116</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3605,19 +3605,19 @@
         <v>19399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12320</v>
+        <v>11239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30311</v>
+        <v>30637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009401727533029638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00597107339326717</v>
+        <v>0.005447164509888282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01468998790480477</v>
+        <v>0.01484833934136267</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>56850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42627</v>
+        <v>43764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73589</v>
+        <v>72953</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05853924377166939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04389428771119503</v>
+        <v>0.04506500137531429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07577648600268178</v>
+        <v>0.07512088590351097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -3655,19 +3655,19 @@
         <v>100065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81444</v>
+        <v>82380</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121553</v>
+        <v>121305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09161675912352354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07456721625116025</v>
+        <v>0.07542421103971081</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1112902473200997</v>
+        <v>0.1110631705645368</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>147</v>
@@ -3676,19 +3676,19 @@
         <v>156915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>132449</v>
+        <v>134432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>184064</v>
+        <v>181832</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07604851686317124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06419099241213823</v>
+        <v>0.06515210765303092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08920605530833273</v>
+        <v>0.08812431788911045</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>381714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>349001</v>
+        <v>352984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>412045</v>
+        <v>413273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3930580655254534</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.359372740333474</v>
+        <v>0.3634743213472638</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4242910059289413</v>
+        <v>0.4255549118749108</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>476</v>
@@ -3726,19 +3726,19 @@
         <v>512800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>481013</v>
+        <v>478701</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>547314</v>
+        <v>547795</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4695030079670515</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4404004768477515</v>
+        <v>0.4382835080214006</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5011036010061138</v>
+        <v>0.5015436837768101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>836</v>
@@ -3747,19 +3747,19 @@
         <v>894513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>843502</v>
+        <v>846866</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>936114</v>
+        <v>940849</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.433523480156394</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4088008439831929</v>
+        <v>0.4104311198221999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4536851183081665</v>
+        <v>0.4559798951480654</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>439530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>409951</v>
+        <v>405544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>471395</v>
+        <v>468425</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4525924611101415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4221350781843384</v>
+        <v>0.4175965081387429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4854042465682158</v>
+        <v>0.4823467781979724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>377</v>
@@ -3797,19 +3797,19 @@
         <v>401545</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>366201</v>
+        <v>370684</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>433286</v>
+        <v>437323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3676419140131104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.335281674764826</v>
+        <v>0.3393861273918656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3967031823424367</v>
+        <v>0.4003986876612741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>795</v>
@@ -3818,19 +3818,19 @@
         <v>841075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>797608</v>
+        <v>796238</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>887623</v>
+        <v>885500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4076246842813105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3865587623399878</v>
+        <v>0.385894736421286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.43018405684959</v>
+        <v>0.429155423713988</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>87570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70358</v>
+        <v>69998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109829</v>
+        <v>107645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09017244688549415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07244930901769164</v>
+        <v>0.07207792965058681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1130926041474532</v>
+        <v>0.1108437299132024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -3868,19 +3868,19 @@
         <v>63884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49906</v>
+        <v>49980</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80558</v>
+        <v>80280</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05848990731785141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04569245781350331</v>
+        <v>0.0457602469513426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07375648397808887</v>
+        <v>0.07350157331271705</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -3889,19 +3889,19 @@
         <v>151454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127921</v>
+        <v>127380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176532</v>
+        <v>177739</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07340159116609461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06199646120009376</v>
+        <v>0.06173456567457063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08555579382541308</v>
+        <v>0.08614070201126256</v>
       </c>
     </row>
     <row r="15">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5708</v>
+        <v>7060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002116910902446033</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006478121022539376</v>
+        <v>0.008012395632835543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4014,19 +4014,19 @@
         <v>8322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3972</v>
+        <v>4153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15563</v>
+        <v>16037</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009546649050154191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004556748329491686</v>
+        <v>0.00476415846358984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01785382087193647</v>
+        <v>0.01839767672739692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -4035,19 +4035,19 @@
         <v>10187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5038</v>
+        <v>4997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18878</v>
+        <v>17936</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005811902451495573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002874509123541961</v>
+        <v>0.002851162615487295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01077009000418733</v>
+        <v>0.01023287442507686</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>78834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61429</v>
+        <v>60755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97590</v>
+        <v>98219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0894741090141733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06972001102690173</v>
+        <v>0.06895442862252847</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1107618980556301</v>
+        <v>0.1114755300172851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -4085,19 +4085,19 @@
         <v>86602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69206</v>
+        <v>70045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108136</v>
+        <v>105658</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09934806435776627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07939189640219596</v>
+        <v>0.08035374195908515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1240512888126699</v>
+        <v>0.1212083076349044</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>151</v>
@@ -4106,19 +4106,19 @@
         <v>165436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140305</v>
+        <v>141915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188790</v>
+        <v>191444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09438466990137265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08004709750271231</v>
+        <v>0.08096532236183351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1077087011055661</v>
+        <v>0.1092230188299356</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>330783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>301458</v>
+        <v>300567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>362211</v>
+        <v>359229</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3754283900957212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3421450127271214</v>
+        <v>0.3411342174739098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4110979882457705</v>
+        <v>0.4077130366132822</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>340</v>
@@ -4156,19 +4156,19 @@
         <v>363242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>334852</v>
+        <v>333330</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>394610</v>
+        <v>391833</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4167038690165615</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3841357588485503</v>
+        <v>0.3823896598978181</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4526887813119025</v>
+        <v>0.4495027011930196</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>650</v>
@@ -4177,19 +4177,19 @@
         <v>694025</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>652041</v>
+        <v>651399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>735175</v>
+        <v>735857</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3959557011211471</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3720026220114088</v>
+        <v>0.3716366164913992</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4194327472037198</v>
+        <v>0.4198217251729135</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>401086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>369204</v>
+        <v>368170</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>428380</v>
+        <v>430486</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4552194616109951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4190352025737488</v>
+        <v>0.4178609703395461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4861972035434805</v>
+        <v>0.4885876808577875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>337</v>
@@ -4227,19 +4227,19 @@
         <v>354934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>326456</v>
+        <v>325397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>385696</v>
+        <v>386190</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4071734431310522</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3745037609090997</v>
+        <v>0.3732883864278344</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4424625717224307</v>
+        <v>0.4430297439423017</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>714</v>
@@ -4248,19 +4248,19 @@
         <v>756020</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>716154</v>
+        <v>712756</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>801427</v>
+        <v>797938</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.43132499471062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4085806441683922</v>
+        <v>0.4066419036764133</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4572304290474544</v>
+        <v>0.4552400478587545</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>68514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52014</v>
+        <v>53404</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84410</v>
+        <v>87208</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07776112837666439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05903379198757645</v>
+        <v>0.06061175882731341</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09580251665369946</v>
+        <v>0.09897810551325747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -4298,19 +4298,19 @@
         <v>58603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45103</v>
+        <v>44767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75057</v>
+        <v>75618</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06722797444446589</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0517416967122865</v>
+        <v>0.05135581728458982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08610400144285048</v>
+        <v>0.08674793071447474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -4319,19 +4319,19 @@
         <v>127117</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104600</v>
+        <v>104135</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150032</v>
+        <v>149920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07252273181536473</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05967660039915396</v>
+        <v>0.05941119948462278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0855964750984268</v>
+        <v>0.08553251718227284</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>6830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2668</v>
+        <v>2647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15699</v>
+        <v>15595</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01357866081554802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005303700874339974</v>
+        <v>0.005262837124928594</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03120985515677964</v>
+        <v>0.03100315087928349</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5062</v>
+        <v>6226</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00228318211761149</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0112546053548543</v>
+        <v>0.0138436027740591</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -4465,19 +4465,19 @@
         <v>7857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3752</v>
+        <v>3120</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16267</v>
+        <v>17112</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008246827086754463</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003938301013379627</v>
+        <v>0.003274215512168209</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01707376921526629</v>
+        <v>0.01796061797865701</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>35645</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24075</v>
+        <v>24339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50953</v>
+        <v>50548</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07086222950001932</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04786047455618123</v>
+        <v>0.04838632812589729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1012927169426474</v>
+        <v>0.1004893883328407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4515,19 +4515,19 @@
         <v>35851</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24440</v>
+        <v>24739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49206</v>
+        <v>49984</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0797160786418455</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05434423500903599</v>
+        <v>0.05500811401923561</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1094112819009007</v>
+        <v>0.1111422711351593</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -4536,19 +4536,19 @@
         <v>71496</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54133</v>
+        <v>55337</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>91511</v>
+        <v>92038</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07504153457831252</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05681779695281364</v>
+        <v>0.05808067091318246</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09604878401206104</v>
+        <v>0.09660240810087564</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>183802</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160969</v>
+        <v>160687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>208072</v>
+        <v>208292</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3653951971073428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3200041942414866</v>
+        <v>0.3194424973983812</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4136422375389208</v>
+        <v>0.4140807333139812</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -4586,19 +4586,19 @@
         <v>175010</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>153811</v>
+        <v>152139</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>197596</v>
+        <v>196654</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3891456700168302</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3420076839511371</v>
+        <v>0.338289713712872</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4393652470854314</v>
+        <v>0.4372705624251731</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>330</v>
@@ -4607,19 +4607,19 @@
         <v>358813</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>326171</v>
+        <v>325495</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>390035</v>
+        <v>390640</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.376606193641446</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3423462951335347</v>
+        <v>0.3416360445942598</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4093771310419773</v>
+        <v>0.4100114765318604</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>239731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>215034</v>
+        <v>218141</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>262335</v>
+        <v>263611</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4765815119522891</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4274837508990432</v>
+        <v>0.4336608439388528</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5215165315714101</v>
+        <v>0.5240545355795098</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -4657,19 +4657,19 @@
         <v>208452</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>186483</v>
+        <v>187054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>228915</v>
+        <v>233598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4635049375354575</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4146563192016127</v>
+        <v>0.4159248693846964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5090054936970355</v>
+        <v>0.5194193575378375</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>411</v>
@@ -4678,19 +4678,19 @@
         <v>448184</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>416049</v>
+        <v>411138</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>483367</v>
+        <v>477370</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4704089430512934</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4366812119109118</v>
+        <v>0.431526466234791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5073376428548384</v>
+        <v>0.5010428405404532</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>37014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26555</v>
+        <v>27151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49066</v>
+        <v>51097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07358240062480072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05279144813732275</v>
+        <v>0.05397536376060474</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09754220953609719</v>
+        <v>0.1015792550492188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -4728,19 +4728,19 @@
         <v>29390</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20277</v>
+        <v>18513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43288</v>
+        <v>42186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06535013168825535</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04508632389410758</v>
+        <v>0.04116543689823037</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09625238976757812</v>
+        <v>0.09380403122712434</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>62</v>
@@ -4749,19 +4749,19 @@
         <v>66404</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50698</v>
+        <v>50950</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85610</v>
+        <v>82966</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06969650164219358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05321247337802429</v>
+        <v>0.05347702603310831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08985550527648178</v>
+        <v>0.08707998191491109</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>30408</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20166</v>
+        <v>20527</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43625</v>
+        <v>45210</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008962059072459554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005943520190120188</v>
+        <v>0.00604982134083095</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01285737175501717</v>
+        <v>0.01332450897163353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -4874,19 +4874,19 @@
         <v>45541</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33223</v>
+        <v>31250</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60617</v>
+        <v>60318</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01290327293519362</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009412944953861529</v>
+        <v>0.008853958049859013</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01717456276190688</v>
+        <v>0.01708981448747562</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -4895,19 +4895,19 @@
         <v>75950</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60587</v>
+        <v>58258</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>95957</v>
+        <v>96584</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0109715116687347</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008752295990737331</v>
+        <v>0.008415888320965825</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0138617239776005</v>
+        <v>0.0139522784259988</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>236242</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>208031</v>
+        <v>205434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>269443</v>
+        <v>270445</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06962639645413424</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06131192998963188</v>
+        <v>0.06054670473077968</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07941167571469913</v>
+        <v>0.0797068340039445</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>299</v>
@@ -4945,19 +4945,19 @@
         <v>324503</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>287913</v>
+        <v>289123</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>361582</v>
+        <v>362925</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09194165454405835</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08157451599453033</v>
+        <v>0.08191728139240613</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1024472022217224</v>
+        <v>0.1028277547340817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>514</v>
@@ -4966,19 +4966,19 @@
         <v>560745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>513859</v>
+        <v>514540</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>604343</v>
+        <v>605477</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08100397069067694</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07423089923543656</v>
+        <v>0.07432933783979971</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08730205504096392</v>
+        <v>0.08746584639136556</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1320436</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1258853</v>
+        <v>1261215</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1382602</v>
+        <v>1378608</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3891658172227191</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3710156877731116</v>
+        <v>0.371711974112881</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.407487683128708</v>
+        <v>0.406310481231959</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1435</v>
@@ -5016,19 +5016,19 @@
         <v>1542291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1487290</v>
+        <v>1481529</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1607719</v>
+        <v>1604799</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4369778097874297</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4213941456400393</v>
+        <v>0.4197620754953768</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4555154823480003</v>
+        <v>0.4546881032066924</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2668</v>
@@ -5037,19 +5037,19 @@
         <v>2862727</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2780666</v>
+        <v>2777470</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2947767</v>
+        <v>2947554</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4135430613760209</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4016887721860509</v>
+        <v>0.4012270308023262</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4258277154676983</v>
+        <v>0.4257969049829778</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1535689</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1475388</v>
+        <v>1474140</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1594218</v>
+        <v>1592782</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4526063677333708</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4348341134753514</v>
+        <v>0.4344661899842836</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4698562959934406</v>
+        <v>0.4694330720581136</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1304</v>
@@ -5087,19 +5087,19 @@
         <v>1407167</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1344416</v>
+        <v>1348191</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1462827</v>
+        <v>1465896</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3986930769872729</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3809138467487845</v>
+        <v>0.3819831868128131</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4144630247570584</v>
+        <v>0.4153325728990336</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2751</v>
@@ -5108,19 +5108,19 @@
         <v>2942856</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2859017</v>
+        <v>2854638</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3029337</v>
+        <v>3020405</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4251183384518719</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4130071369858943</v>
+        <v>0.4123745427869193</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4376112318861224</v>
+        <v>0.4363208313047871</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>270216</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239100</v>
+        <v>241478</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>304710</v>
+        <v>305103</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07963935951731629</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07046885229489215</v>
+        <v>0.07116978528612575</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08980569292773155</v>
+        <v>0.08992167824489236</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>195</v>
@@ -5158,19 +5158,19 @@
         <v>209946</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>184692</v>
+        <v>185569</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>242883</v>
+        <v>241153</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05948418574604543</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05232873984303358</v>
+        <v>0.05257730150699683</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06881620823658587</v>
+        <v>0.06832581978884485</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>451</v>
@@ -5179,19 +5179,19 @@
         <v>480162</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>438256</v>
+        <v>436185</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>525318</v>
+        <v>520447</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06936311781269559</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06330953871865182</v>
+        <v>0.06301024085043562</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07588626530112953</v>
+        <v>0.07518264609182618</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>5940</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2733</v>
+        <v>2039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13020</v>
+        <v>11897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005287601499595272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002432996656311752</v>
+        <v>0.00181539670015186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01159058898440561</v>
+        <v>0.0105914805435639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5544,19 +5544,19 @@
         <v>18070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11038</v>
+        <v>10118</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28383</v>
+        <v>28265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01441285005364379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008803936220324446</v>
+        <v>0.008070165341667256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02263861416754224</v>
+        <v>0.02254446434963252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5565,19 +5565,19 @@
         <v>24009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15828</v>
+        <v>14857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36285</v>
+        <v>35740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01010055870652786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006658910028660705</v>
+        <v>0.006250401908457452</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01526497217638728</v>
+        <v>0.01503534276918986</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>35333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24944</v>
+        <v>25177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49742</v>
+        <v>48042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03145461162137575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0222060770831745</v>
+        <v>0.02241307503570847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04428190402690756</v>
+        <v>0.04276790621441431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -5615,19 +5615,19 @@
         <v>44706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32582</v>
+        <v>32462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59468</v>
+        <v>60232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03565863007489126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02598835451877519</v>
+        <v>0.0258922748058656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04743264641313723</v>
+        <v>0.04804279178923219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -5636,19 +5636,19 @@
         <v>80039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63939</v>
+        <v>64443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99078</v>
+        <v>100054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03367194968006875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02689850987590242</v>
+        <v>0.02711052840911347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04168145795338581</v>
+        <v>0.04209211536242564</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>279519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>251697</v>
+        <v>250249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>307761</v>
+        <v>312790</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2488358405469887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2240678041772919</v>
+        <v>0.222778550523917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2739771216515505</v>
+        <v>0.2784542065730754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>386</v>
@@ -5686,19 +5686,19 @@
         <v>412108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>379006</v>
+        <v>378566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>447835</v>
+        <v>446860</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.328706674037995</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3023038950869514</v>
+        <v>0.3019530369115043</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3572029298894783</v>
+        <v>0.3564258561915518</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>651</v>
@@ -5707,19 +5707,19 @@
         <v>691627</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>650383</v>
+        <v>644806</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>737953</v>
+        <v>738797</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.290962353747958</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2736113522976455</v>
+        <v>0.2712650524639764</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3104512782683704</v>
+        <v>0.3108061467424512</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>540912</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>509680</v>
+        <v>506217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>576798</v>
+        <v>574771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4815347716262631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4537313793955429</v>
+        <v>0.4506486824547126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5134816440867532</v>
+        <v>0.5116767815614536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>469</v>
@@ -5757,19 +5757,19 @@
         <v>493677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>457708</v>
+        <v>458065</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>527935</v>
+        <v>530880</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3937682430537386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3650785035690947</v>
+        <v>0.3653627268430057</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4210926649768293</v>
+        <v>0.4234414564134156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>977</v>
@@ -5778,19 +5778,19 @@
         <v>1034589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>986671</v>
+        <v>986796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1085292</v>
+        <v>1084782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4352438082931957</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4150849767450256</v>
+        <v>0.4151377066493578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4565739041311651</v>
+        <v>0.4563593956553823</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>261604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231919</v>
+        <v>236144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290395</v>
+        <v>292079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2328871747057772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2064604532066972</v>
+        <v>0.2102222330555854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2585178673648966</v>
+        <v>0.2600169481488206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -5828,19 +5828,19 @@
         <v>285164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256656</v>
+        <v>257844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>314497</v>
+        <v>318094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2274536027797313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2047143051202159</v>
+        <v>0.2056621372754109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2508500803770288</v>
+        <v>0.2537189277878187</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>518</v>
@@ -5849,19 +5849,19 @@
         <v>546769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505188</v>
+        <v>505112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>584055</v>
+        <v>586403</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2300213295722496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2125287796270582</v>
+        <v>0.2124967751432365</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.245707620024462</v>
+        <v>0.2466954024851135</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>3655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>951</v>
+        <v>1086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9219</v>
+        <v>9223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004051349274669665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001054062807652982</v>
+        <v>0.00120363688347907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01021955645204408</v>
+        <v>0.01022410552234326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5974,19 +5974,19 @@
         <v>9523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4657</v>
+        <v>4602</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17251</v>
+        <v>17584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009469629109889063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004630870092562557</v>
+        <v>0.004575927100817474</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01715440051854722</v>
+        <v>0.01748495026993353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -5995,19 +5995,19 @@
         <v>13178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6829</v>
+        <v>7625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21917</v>
+        <v>22338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006907582017260859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003579641977052413</v>
+        <v>0.003997035006438133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01148834526447164</v>
+        <v>0.01170940619980199</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>23341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14388</v>
+        <v>14881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35028</v>
+        <v>34958</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02587493820475295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01595024771317844</v>
+        <v>0.01649597946504146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03883048051398366</v>
+        <v>0.03875267689821101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -6045,19 +6045,19 @@
         <v>37205</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26306</v>
+        <v>26051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52431</v>
+        <v>52239</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03699562741279938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0261582598692641</v>
+        <v>0.02590472600980898</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05213621382205909</v>
+        <v>0.05194547662934394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -6066,19 +6066,19 @@
         <v>60546</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46178</v>
+        <v>44013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78259</v>
+        <v>78907</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03173718186919754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02420571966430779</v>
+        <v>0.02307067172123619</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04102193882604761</v>
+        <v>0.04136142728526487</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>327871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>300065</v>
+        <v>296576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>358307</v>
+        <v>356234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3634614082521078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3326370560530237</v>
+        <v>0.3287695473374646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3972015225046969</v>
+        <v>0.3949031258423931</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>403</v>
@@ -6116,19 +6116,19 @@
         <v>426229</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>395627</v>
+        <v>394355</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>460896</v>
+        <v>458192</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4238301219052161</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.393400778845936</v>
+        <v>0.3921350452696415</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4583022994291385</v>
+        <v>0.4556132307250829</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>720</v>
@@ -6137,19 +6137,19 @@
         <v>754100</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>713487</v>
+        <v>712781</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>793488</v>
+        <v>796106</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3952846255476276</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3739961492020453</v>
+        <v>0.3736260836677607</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4159311666693707</v>
+        <v>0.4173032470610905</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>413386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>384260</v>
+        <v>383972</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>443996</v>
+        <v>444526</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4582591110972529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4259713193405781</v>
+        <v>0.4256523982158848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4921916060179587</v>
+        <v>0.4927793457710941</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>384</v>
@@ -6187,19 +6187,19 @@
         <v>405866</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>375102</v>
+        <v>374419</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>439430</v>
+        <v>438858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4035819394194504</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3729907169704666</v>
+        <v>0.3723118050196605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4369571463092461</v>
+        <v>0.4363883083414366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>786</v>
@@ -6208,19 +6208,19 @@
         <v>819252</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>778938</v>
+        <v>771568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>863007</v>
+        <v>861410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.429436176002005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4083044409663572</v>
+        <v>0.404440831663202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4523714240987149</v>
+        <v>0.4515343570859263</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>133826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112247</v>
+        <v>114249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158896</v>
+        <v>156599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1483531931712167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1244311040875622</v>
+        <v>0.1266505682370399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1761438829443153</v>
+        <v>0.1735979849887047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -6258,19 +6258,19 @@
         <v>126837</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106317</v>
+        <v>105371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>149272</v>
+        <v>150406</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1261226821526451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.10571905569116</v>
+        <v>0.1047780121863572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1484320613549485</v>
+        <v>0.1495596002067476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>250</v>
@@ -6279,19 +6279,19 @@
         <v>260663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>229701</v>
+        <v>228211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>293183</v>
+        <v>290689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1366344345639091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1204046020413628</v>
+        <v>0.1196237100888218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1536809400388855</v>
+        <v>0.1523737826777161</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>4652</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11608</v>
+        <v>11498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005654138717240056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00184901062891422</v>
+        <v>0.001854567596767844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01410796577827687</v>
+        <v>0.01397359436353919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6404,19 +6404,19 @@
         <v>6606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2485</v>
+        <v>2213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14428</v>
+        <v>13805</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008579112016501998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003227285472103762</v>
+        <v>0.002874043382853985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01873763120971233</v>
+        <v>0.01792767804615722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -6425,19 +6425,19 @@
         <v>11258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5330</v>
+        <v>5570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20255</v>
+        <v>20091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007068133227208771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003346531614098084</v>
+        <v>0.003497191973417971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01271655297384639</v>
+        <v>0.01261365116752089</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>23679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15094</v>
+        <v>15304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35531</v>
+        <v>34705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02877804686423255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01834461692918618</v>
+        <v>0.01859986405492657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04318173215732698</v>
+        <v>0.04217805164609952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -6475,19 +6475,19 @@
         <v>34883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25128</v>
+        <v>24175</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49248</v>
+        <v>48895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0453023883333574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03263326822453328</v>
+        <v>0.03139587655476438</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06395692713789078</v>
+        <v>0.06349880351867933</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -6496,19 +6496,19 @@
         <v>58563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44725</v>
+        <v>44495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78030</v>
+        <v>76613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03676626614954591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02807867060722088</v>
+        <v>0.02793470848986708</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04898779986381707</v>
+        <v>0.04809855948331475</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>338107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>310985</v>
+        <v>312505</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>368243</v>
+        <v>371282</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4109099827785926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3779482928508431</v>
+        <v>0.379794956153053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4475344802667429</v>
+        <v>0.4512278582661564</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>325</v>
@@ -6546,19 +6546,19 @@
         <v>342922</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>311073</v>
+        <v>315164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>369529</v>
+        <v>368086</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4453469342468616</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4039856972122647</v>
+        <v>0.409297845211213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4799011317018191</v>
+        <v>0.4780266560944049</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>651</v>
@@ -6567,19 +6567,19 @@
         <v>681029</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>641934</v>
+        <v>643740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>722473</v>
+        <v>722897</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.427557539981415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4030132264918301</v>
+        <v>0.4041468077294696</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4535767376399554</v>
+        <v>0.4538429714297176</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>399807</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>369051</v>
+        <v>370292</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>428762</v>
+        <v>427055</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4858952805535002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4485174220344157</v>
+        <v>0.4500246317484334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5210857369249953</v>
+        <v>0.5190102095331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>319</v>
@@ -6617,19 +6617,19 @@
         <v>339255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>312832</v>
+        <v>314235</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>370052</v>
+        <v>371806</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4405850131196848</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4062698207753454</v>
+        <v>0.4080920187297301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4805804951571549</v>
+        <v>0.4828574593551905</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>701</v>
@@ -6638,19 +6638,19 @@
         <v>739062</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>698516</v>
+        <v>699992</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>779394</v>
+        <v>779972</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4639913303831532</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4385360045183499</v>
+        <v>0.439462741985897</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4893123583818266</v>
+        <v>0.4896751623301784</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>56580</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42991</v>
+        <v>42808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73074</v>
+        <v>72443</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06876255108643456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05224778259370256</v>
+        <v>0.05202604533590707</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0888082981939423</v>
+        <v>0.08804226358008599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -6688,19 +6688,19 @@
         <v>46344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34670</v>
+        <v>34752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59841</v>
+        <v>60247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06018655228359422</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04502548046874762</v>
+        <v>0.04513132756323401</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07771497928824909</v>
+        <v>0.07824234057098005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>96</v>
@@ -6709,19 +6709,19 @@
         <v>102924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83018</v>
+        <v>84686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>125452</v>
+        <v>123973</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06461673025867713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05211951798267012</v>
+        <v>0.05316681074785469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07875989516114336</v>
+        <v>0.07783175936482559</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>7145</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3221</v>
+        <v>3131</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14228</v>
+        <v>14378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01423653141490304</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006417232526833978</v>
+        <v>0.006238945805226547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02834743356882137</v>
+        <v>0.02864650407488307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6834,19 +6834,19 @@
         <v>7355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3069</v>
+        <v>3123</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13448</v>
+        <v>14931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01508498021558158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006294879561645282</v>
+        <v>0.006405210968246317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02758147257235685</v>
+        <v>0.03062306076750102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -6855,19 +6855,19 @@
         <v>14501</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7937</v>
+        <v>8658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23084</v>
+        <v>23951</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01465461767946571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008021083965055567</v>
+        <v>0.008749826738257929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0233294811924219</v>
+        <v>0.02420580174149289</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>17973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10557</v>
+        <v>10275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29876</v>
+        <v>28718</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03580885918287847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02103329531966678</v>
+        <v>0.02047300242105732</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05952474671133833</v>
+        <v>0.05721897355715058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -6905,19 +6905,19 @@
         <v>31154</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21139</v>
+        <v>21651</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43077</v>
+        <v>43999</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06389543091810596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04335398176233741</v>
+        <v>0.04440498715112386</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08834784133488523</v>
+        <v>0.09023917252736795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -6926,19 +6926,19 @@
         <v>49127</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>36345</v>
+        <v>35375</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65369</v>
+        <v>64308</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04964895165724063</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03673164894611798</v>
+        <v>0.03575063950236693</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06606411782746921</v>
+        <v>0.06499155054965888</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>208298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>186694</v>
+        <v>185159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>230623</v>
+        <v>233266</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4150183740968839</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3719745387872402</v>
+        <v>0.3689148679378009</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.459497993077681</v>
+        <v>0.4647658957799231</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>201</v>
@@ -6976,19 +6976,19 @@
         <v>218852</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>198343</v>
+        <v>195829</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>242971</v>
+        <v>243294</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4488503214343749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4067873311952971</v>
+        <v>0.4016312845683955</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4983170646098126</v>
+        <v>0.4989777668250816</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>396</v>
@@ -6997,19 +6997,19 @@
         <v>427150</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>392454</v>
+        <v>393625</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458527</v>
+        <v>459397</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4316895892296066</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3966247023266868</v>
+        <v>0.3978084732054139</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4633997046960899</v>
+        <v>0.4642792704096361</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>231007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>207596</v>
+        <v>208133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>255340</v>
+        <v>254517</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4602639998885146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4136199823794075</v>
+        <v>0.4146883883475852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5087460101408078</v>
+        <v>0.507106718984408</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -7047,19 +7047,19 @@
         <v>193043</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>171094</v>
+        <v>170175</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>213624</v>
+        <v>215350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3959182867680533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3509026104531491</v>
+        <v>0.3490166717055549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4381275539840708</v>
+        <v>0.4416675753319852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>396</v>
@@ -7068,19 +7068,19 @@
         <v>424050</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>392160</v>
+        <v>391783</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>457889</v>
+        <v>453494</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4285566548870955</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3963275405801586</v>
+        <v>0.3959463309303602</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4627554065734572</v>
+        <v>0.4583139248448085</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>37478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26668</v>
+        <v>26352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52106</v>
+        <v>51538</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07467223541682003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05313461673231275</v>
+        <v>0.05250531932430907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1038164715360581</v>
+        <v>0.1026847183042516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -7118,19 +7118,19 @@
         <v>37179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26395</v>
+        <v>25942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51472</v>
+        <v>50265</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07625098066388425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05413494985707313</v>
+        <v>0.05320552379095131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1055650810068923</v>
+        <v>0.1030897810626588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>68</v>
@@ -7139,19 +7139,19 @@
         <v>74657</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59312</v>
+        <v>57986</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>94988</v>
+        <v>93097</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07545018654659152</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05994231485882054</v>
+        <v>0.05860200344113841</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09599739758910249</v>
+        <v>0.09408622583021682</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>21392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12929</v>
+        <v>12875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31938</v>
+        <v>32296</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006385436857200446</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003859356457869861</v>
+        <v>0.00384317511447084</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009533436267778011</v>
+        <v>0.009640173450248014</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>38</v>
@@ -7264,19 +7264,19 @@
         <v>41554</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30134</v>
+        <v>28318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>57889</v>
+        <v>57056</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01181530369695696</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008568273051550269</v>
+        <v>0.008051763324827405</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01645995829752706</v>
+        <v>0.01622291856352202</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -7285,19 +7285,19 @@
         <v>62946</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49062</v>
+        <v>48183</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>81207</v>
+        <v>79593</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009166342230902246</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007144576957365641</v>
+        <v>0.007016498723520738</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01182550197188264</v>
+        <v>0.01159042697884874</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>100326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81631</v>
+        <v>82444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>122064</v>
+        <v>125016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02994712446662754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02436661969772518</v>
+        <v>0.02460927034338675</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03643589365627876</v>
+        <v>0.03731704863716076</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -7335,19 +7335,19 @@
         <v>147949</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>125774</v>
+        <v>123510</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175462</v>
+        <v>175076</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04206701496139435</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03576197950770123</v>
+        <v>0.03511820887372413</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04988991140019129</v>
+        <v>0.04978031169987676</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>232</v>
@@ -7356,19 +7356,19 @@
         <v>248275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217598</v>
+        <v>218145</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>280923</v>
+        <v>281858</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03615432431152939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03168706734563604</v>
+        <v>0.03176673752333745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04090860113445546</v>
+        <v>0.04104475555238747</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1153795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1096479</v>
+        <v>1099781</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1204293</v>
+        <v>1209022</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3444048934125886</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3272962714935177</v>
+        <v>0.328281902051354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3594783683096534</v>
+        <v>0.3608898440837083</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1315</v>
@@ -7406,19 +7406,19 @@
         <v>1400111</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1337863</v>
+        <v>1342198</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1458583</v>
+        <v>1458041</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3981003383155274</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3804009034132194</v>
+        <v>0.3816335194829404</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4147258633974902</v>
+        <v>0.4145716835286097</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2418</v>
@@ -7427,19 +7427,19 @@
         <v>2553906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2469276</v>
+        <v>2467080</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2629439</v>
+        <v>2632899</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3719050063399596</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3595809635563998</v>
+        <v>0.3592611585086268</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3829042134776413</v>
+        <v>0.3834080913766797</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1585112</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1526151</v>
+        <v>1527907</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1640329</v>
+        <v>1642067</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4731516599494035</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4555521674144422</v>
+        <v>0.4560761499818071</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4896338187882883</v>
+        <v>0.4901528538925002</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1352</v>
@@ -7477,19 +7477,19 @@
         <v>1431842</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1368532</v>
+        <v>1371957</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1487069</v>
+        <v>1496057</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4071225902863054</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3891213443128541</v>
+        <v>0.3900952033040823</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4228253491004215</v>
+        <v>0.4253810711684402</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2860</v>
@@ -7498,19 +7498,19 @@
         <v>3016954</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2939581</v>
+        <v>2932259</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3107210</v>
+        <v>3098780</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4393348832096494</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4280677970316688</v>
+        <v>0.4270015317295672</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4524782132215674</v>
+        <v>0.451250615270619</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>489488</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>449031</v>
+        <v>450931</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>531478</v>
+        <v>534188</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.14611088531418</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1340347033607076</v>
+        <v>0.1346017617577187</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1586448110906203</v>
+        <v>0.1594536881402872</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>469</v>
@@ -7548,19 +7548,19 @@
         <v>495524</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>456589</v>
+        <v>451505</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>540430</v>
+        <v>539740</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1408947527398159</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.12982399784412</v>
+        <v>0.1283786634682533</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1536630742171001</v>
+        <v>0.1534668377266397</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>932</v>
@@ -7569,19 +7569,19 @@
         <v>985012</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>928499</v>
+        <v>925257</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1044705</v>
+        <v>1046825</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1434394439079593</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1352098597152524</v>
+        <v>0.1347377589901503</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.152132016814828</v>
+        <v>0.1524407340295908</v>
       </c>
     </row>
     <row r="33">
